--- a/biology/Botanique/Nom_d'hybride/Nom_d'hybride.xlsx
+++ b/biology/Botanique/Nom_d'hybride/Nom_d'hybride.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nom_d%27hybride</t>
+          <t>Nom_d'hybride</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la nomenclature botanique, un hybride peut recevoir un nom d'hybride, qui est un type particulier de nom botanique. Le code international de nomenclature botanique propose les options suivantes pour désigner un hybride :
 un hybride peut recevoir un nom botanique normal ; c'est l'option généralement utilisée pour les hybrides apparaissant naturellement.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nom_d%27hybride</t>
+          <t>Nom_d'hybride</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Utilisation du signe de multiplication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Un nom d'hybride est un nom botanique et est traité comme les autres noms botaniques, dans la plupart des cas. Le signe de multiplication ne fait pas partie du nom proprement dit et on ne doit pas en tenir compte dans un but nomenclatural tel que synonymie, homonymie, etc. Cela signifie que, par exemple, Drosera ×anglica doit, dans un but nomenclatural, être traité comme Drosera anglica. Un taxonomiste peut décider d'employer l'une ou l'autre forme de ce nom, s'il veut souligner que c'est un hybride, il emploiera Drosera ×anglica, s'il veut insister sur le fait que c'est une espèce, il dira plutôt Drosera anglica.
 Un nom d'hybride diffère des autres noms botaniques en ce qu'il ne se réfère pas nécessairement à une unité cohérente mais s'applique à toute la descendance des parents, peu importe l'amplitude de la variation. Ainsi, Magnolia ×soulangeana s'applique à tous les produits du croisement Magnolia denudata × Magnolia liliiflora, ainsi qu'aux croisements de tous leurs descendants aussi bien qu'aux croisements des descendants avec les parents. Cela recouvre une large gamme en matière de couleur des fleurs.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nom_d%27hybride</t>
+          <t>Nom_d'hybride</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,13 +562,15 @@
           <t>Directionnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dispositions du code international de nomenclature botanique qui traitent des noms d'hybride sont les suivantes : articles H1 à H12. Ainsi, il recommande :
 de ne pas multiplier les noms d’hybrides s’ils ne sont pas nécessaires, car les noms des parents sont plus informatifs (H.10B.1),
 de placer ou non des espaces autour du signe × selon ce qui permet une meilleure lisibilité (H.3A.1),
 de placer soit les épithètes des parents dans l’ordre alphabétique, soit le parent femelle en premier (H.2A.1).
-Ainsi, dans une formule de nommage listant les parents, il convient de placer le nom du parent femelle à gauche et le nom du parent mâle à droite, ou d’utiliser les symboles ♀ (femelle) et ♂ (mâle) pour clarifier[1]. Suivant cette recommandation :
+Ainsi, dans une formule de nommage listant les parents, il convient de placer le nom du parent femelle à gauche et le nom du parent mâle à droite, ou d’utiliser les symboles ♀ (femelle) et ♂ (mâle) pour clarifier. Suivant cette recommandation :
 un hybride formulé Citrus reticulata × Citrus medica sera issu de la fécondation d’un ovule du pistil d’une fleur de mandarinier par du pollen de cédratier
 un hybride formulé Citrus medica × Citrus reticulata sera issu de la fécondation d’un ovule du pistil d’une fleur de cédratier par du pollen de mandarinier
 Noter que le nom d'une chimère utilise le signe de l'addition, « + ».
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nom_d%27hybride</t>
+          <t>Nom_d'hybride</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Le langage de l'horticulture</t>
         </is>
